--- a/Code/Results/Cases/Case_6_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_39/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033672456676544</v>
+        <v>1.028415067075898</v>
       </c>
       <c r="D2">
-        <v>1.050549530062117</v>
+        <v>1.046800934136201</v>
       </c>
       <c r="E2">
-        <v>1.044617893444519</v>
+        <v>1.040604995492723</v>
       </c>
       <c r="F2">
-        <v>1.05469856280794</v>
+        <v>1.050584238301896</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062762773503137</v>
+        <v>1.06138243501129</v>
       </c>
       <c r="J2">
-        <v>1.054890646670986</v>
+        <v>1.049777877585914</v>
       </c>
       <c r="K2">
-        <v>1.061346840203476</v>
+        <v>1.057644602744894</v>
       </c>
       <c r="L2">
-        <v>1.055488750511407</v>
+        <v>1.051526202020601</v>
       </c>
       <c r="M2">
-        <v>1.06544503994512</v>
+        <v>1.061381121133755</v>
       </c>
       <c r="N2">
-        <v>1.056388712386907</v>
+        <v>1.051268682583291</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040458370004934</v>
+        <v>1.032678551704447</v>
       </c>
       <c r="D3">
-        <v>1.055984673183502</v>
+        <v>1.050158594953991</v>
       </c>
       <c r="E3">
-        <v>1.050421832787913</v>
+        <v>1.04414647655319</v>
       </c>
       <c r="F3">
-        <v>1.060772338742698</v>
+        <v>1.054411265253931</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065240866042456</v>
+        <v>1.062907404062388</v>
       </c>
       <c r="J3">
-        <v>1.059903733908767</v>
+        <v>1.0523163435489</v>
       </c>
       <c r="K3">
-        <v>1.065948032563476</v>
+        <v>1.060187523718147</v>
       </c>
       <c r="L3">
-        <v>1.060447779613743</v>
+        <v>1.054244015423818</v>
       </c>
       <c r="M3">
-        <v>1.070682478416316</v>
+        <v>1.064392244550726</v>
       </c>
       <c r="N3">
-        <v>1.061408918783575</v>
+        <v>1.053810753459111</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044731921083121</v>
+        <v>1.03538478897592</v>
       </c>
       <c r="D4">
-        <v>1.059409247921916</v>
+        <v>1.052292116833379</v>
       </c>
       <c r="E4">
-        <v>1.054081972194064</v>
+        <v>1.046399760993753</v>
       </c>
       <c r="F4">
-        <v>1.064602873784227</v>
+        <v>1.05684582446022</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066787806719913</v>
+        <v>1.063865466146542</v>
       </c>
       <c r="J4">
-        <v>1.06305668993786</v>
+        <v>1.05392470384857</v>
       </c>
       <c r="K4">
-        <v>1.068839871052043</v>
+        <v>1.061797871626657</v>
       </c>
       <c r="L4">
-        <v>1.063568715628519</v>
+        <v>1.055968666010884</v>
       </c>
       <c r="M4">
-        <v>1.073979444501778</v>
+        <v>1.066303365682768</v>
       </c>
       <c r="N4">
-        <v>1.064566352371878</v>
+        <v>1.055421397814888</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046501823721412</v>
+        <v>1.036510328056979</v>
       </c>
       <c r="D5">
-        <v>1.060827870536475</v>
+        <v>1.053179960681371</v>
       </c>
       <c r="E5">
-        <v>1.055598958452777</v>
+        <v>1.047338159857015</v>
       </c>
       <c r="F5">
-        <v>1.066190538848884</v>
+        <v>1.057859623477772</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067425139122024</v>
+        <v>1.064261517129048</v>
       </c>
       <c r="J5">
-        <v>1.064361451931439</v>
+        <v>1.054592898675533</v>
       </c>
       <c r="K5">
-        <v>1.070036066934514</v>
+        <v>1.062466685616895</v>
       </c>
       <c r="L5">
-        <v>1.064860695122861</v>
+        <v>1.056685812287893</v>
       </c>
       <c r="M5">
-        <v>1.07534448910944</v>
+        <v>1.067098133403238</v>
       </c>
       <c r="N5">
-        <v>1.065872967277146</v>
+        <v>1.056090541555148</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046797471507983</v>
+        <v>1.036698609373241</v>
       </c>
       <c r="D6">
-        <v>1.061064856751494</v>
+        <v>1.053328508347711</v>
       </c>
       <c r="E6">
-        <v>1.055852423073596</v>
+        <v>1.047495208371003</v>
       </c>
       <c r="F6">
-        <v>1.066455816150354</v>
+        <v>1.058029285443503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067531402515754</v>
+        <v>1.064327626135272</v>
       </c>
       <c r="J6">
-        <v>1.064579338929888</v>
+        <v>1.054704631167742</v>
       </c>
       <c r="K6">
-        <v>1.070235793628696</v>
+        <v>1.062578509317959</v>
       </c>
       <c r="L6">
-        <v>1.065076474865233</v>
+        <v>1.056805767795336</v>
       </c>
       <c r="M6">
-        <v>1.075572483145202</v>
+        <v>1.067231077378412</v>
       </c>
       <c r="N6">
-        <v>1.066091163700125</v>
+        <v>1.056202432720313</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04475567373241</v>
+        <v>1.035399875745589</v>
       </c>
       <c r="D7">
-        <v>1.059428285097862</v>
+        <v>1.052304015603869</v>
       </c>
       <c r="E7">
-        <v>1.054102326247979</v>
+        <v>1.046412334456046</v>
       </c>
       <c r="F7">
-        <v>1.06462417594089</v>
+        <v>1.056859408560322</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066796373191571</v>
+        <v>1.063870784401633</v>
       </c>
       <c r="J7">
-        <v>1.063074204448314</v>
+        <v>1.053933663283492</v>
       </c>
       <c r="K7">
-        <v>1.068855930260964</v>
+        <v>1.061806840187965</v>
       </c>
       <c r="L7">
-        <v>1.063586056709186</v>
+        <v>1.055978279282739</v>
       </c>
       <c r="M7">
-        <v>1.073997765506153</v>
+        <v>1.066314019133409</v>
       </c>
       <c r="N7">
-        <v>1.064583891754946</v>
+        <v>1.055430369973236</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035990973254259</v>
+        <v>1.029867060218228</v>
       </c>
       <c r="D8">
-        <v>1.052406125829991</v>
+        <v>1.047943938043077</v>
       </c>
       <c r="E8">
-        <v>1.046599803726567</v>
+        <v>1.04180995948142</v>
       </c>
       <c r="F8">
-        <v>1.056772568915758</v>
+        <v>1.051886444490669</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063612301668817</v>
+        <v>1.06190384025783</v>
       </c>
       <c r="J8">
-        <v>1.056604284057971</v>
+        <v>1.050642984704999</v>
       </c>
       <c r="K8">
-        <v>1.062920102277327</v>
+        <v>1.058511399456498</v>
       </c>
       <c r="L8">
-        <v>1.057183487267239</v>
+        <v>1.05245187395606</v>
       </c>
       <c r="M8">
-        <v>1.067234749576137</v>
+        <v>1.06240662102597</v>
       </c>
       <c r="N8">
-        <v>1.058104783335539</v>
+        <v>1.052135018253715</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019578365646221</v>
+        <v>1.019695831103209</v>
       </c>
       <c r="D9">
-        <v>1.03927436075377</v>
+        <v>1.03994845604098</v>
       </c>
       <c r="E9">
-        <v>1.032594746724392</v>
+        <v>1.033393281044773</v>
       </c>
       <c r="F9">
-        <v>1.042117631115724</v>
+        <v>1.042788652704926</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057542095625313</v>
+        <v>1.058210900770894</v>
       </c>
       <c r="J9">
-        <v>1.044458212192531</v>
+        <v>1.044571748793687</v>
       </c>
       <c r="K9">
-        <v>1.051760828670312</v>
+        <v>1.052425020152496</v>
       </c>
       <c r="L9">
-        <v>1.045180240523752</v>
+        <v>1.045966850813908</v>
       </c>
       <c r="M9">
-        <v>1.054562436040867</v>
+        <v>1.055223667057102</v>
       </c>
       <c r="N9">
-        <v>1.045941462654876</v>
+        <v>1.046055160491028</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00787877867344</v>
+        <v>1.012602718986311</v>
       </c>
       <c r="D10">
-        <v>1.029931974274246</v>
+        <v>1.034388958757419</v>
       </c>
       <c r="E10">
-        <v>1.022647006427719</v>
+        <v>1.027556121760911</v>
       </c>
       <c r="F10">
-        <v>1.031709357259142</v>
+        <v>1.036476555468868</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053145613251341</v>
+        <v>1.055585761215613</v>
       </c>
       <c r="J10">
-        <v>1.035783251756425</v>
+        <v>1.040325088156534</v>
       </c>
       <c r="K10">
-        <v>1.043781040110733</v>
+        <v>1.048163881219001</v>
       </c>
       <c r="L10">
-        <v>1.036619056986791</v>
+        <v>1.041445049589066</v>
       </c>
       <c r="M10">
-        <v>1.045528756840852</v>
+        <v>1.05021703215645</v>
       </c>
       <c r="N10">
-        <v>1.037254182779919</v>
+        <v>1.041802469108671</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002605542239011</v>
+        <v>1.009450342110996</v>
       </c>
       <c r="D11">
-        <v>1.025727163317209</v>
+        <v>1.031922709991284</v>
       </c>
       <c r="E11">
-        <v>1.018173265370212</v>
+        <v>1.024970211488113</v>
       </c>
       <c r="F11">
-        <v>1.027028727472787</v>
+        <v>1.033679569848507</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051148525657212</v>
+        <v>1.054407796434584</v>
       </c>
       <c r="J11">
-        <v>1.031870327893681</v>
+        <v>1.038435192787574</v>
       </c>
       <c r="K11">
-        <v>1.040179682276283</v>
+        <v>1.046266716268712</v>
       </c>
       <c r="L11">
-        <v>1.032760409877276</v>
+        <v>1.039436104811929</v>
       </c>
       <c r="M11">
-        <v>1.041458309215842</v>
+        <v>1.047993111649298</v>
       </c>
       <c r="N11">
-        <v>1.033335702116471</v>
+        <v>1.039909889871514</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000613036537376</v>
+        <v>1.008266606062873</v>
       </c>
       <c r="D12">
-        <v>1.024139415613844</v>
+        <v>1.030997362588024</v>
       </c>
       <c r="E12">
-        <v>1.01648447521751</v>
+        <v>1.024000486055453</v>
       </c>
       <c r="F12">
-        <v>1.025261869832903</v>
+        <v>1.03263058352172</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050391682645316</v>
+        <v>1.053963815973359</v>
       </c>
       <c r="J12">
-        <v>1.030391474197874</v>
+        <v>1.03772518250973</v>
       </c>
       <c r="K12">
-        <v>1.038818308492943</v>
+        <v>1.045553859145882</v>
       </c>
       <c r="L12">
-        <v>1.031302529467213</v>
+        <v>1.038681880481736</v>
       </c>
       <c r="M12">
-        <v>1.03992058425582</v>
+        <v>1.04715824212043</v>
       </c>
       <c r="N12">
-        <v>1.03185474827879</v>
+        <v>1.039198871297636</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001042010875865</v>
+        <v>1.008521111415361</v>
       </c>
       <c r="D13">
-        <v>1.024481198011997</v>
+        <v>1.031196279327648</v>
       </c>
       <c r="E13">
-        <v>1.016847985797757</v>
+        <v>1.024208919147296</v>
       </c>
       <c r="F13">
-        <v>1.025642183027513</v>
+        <v>1.032856057899411</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050554725835238</v>
+        <v>1.054059346245211</v>
       </c>
       <c r="J13">
-        <v>1.030709876328596</v>
+        <v>1.037877850818483</v>
       </c>
       <c r="K13">
-        <v>1.039111428708924</v>
+        <v>1.045707144683024</v>
       </c>
       <c r="L13">
-        <v>1.031616394948955</v>
+        <v>1.038844032690237</v>
       </c>
       <c r="M13">
-        <v>1.040251631267262</v>
+        <v>1.047337729522182</v>
       </c>
       <c r="N13">
-        <v>1.032173602577058</v>
+        <v>1.039351756412898</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002441546864334</v>
+        <v>1.00935275909219</v>
       </c>
       <c r="D14">
-        <v>1.025596459757269</v>
+        <v>1.031846412145814</v>
       </c>
       <c r="E14">
-        <v>1.018034233853185</v>
+        <v>1.024890244015734</v>
       </c>
       <c r="F14">
-        <v>1.026883268355349</v>
+        <v>1.033593068410495</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051086277722847</v>
+        <v>1.054371229477329</v>
       </c>
       <c r="J14">
-        <v>1.031748615631283</v>
+        <v>1.03837666878674</v>
       </c>
       <c r="K14">
-        <v>1.040067644208034</v>
+        <v>1.04620795991465</v>
       </c>
       <c r="L14">
-        <v>1.032640414326667</v>
+        <v>1.039373925978901</v>
       </c>
       <c r="M14">
-        <v>1.041331738160451</v>
+        <v>1.047924283067856</v>
       </c>
       <c r="N14">
-        <v>1.0332138170087</v>
+        <v>1.039851282759886</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003299284939053</v>
+        <v>1.009863448580899</v>
       </c>
       <c r="D15">
-        <v>1.026280116728003</v>
+        <v>1.032245738813856</v>
       </c>
       <c r="E15">
-        <v>1.018761471418649</v>
+        <v>1.025308797869216</v>
       </c>
       <c r="F15">
-        <v>1.027644128256885</v>
+        <v>1.03404581698017</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051411759988724</v>
+        <v>1.054562531533159</v>
       </c>
       <c r="J15">
-        <v>1.032385188680149</v>
+        <v>1.038682933649739</v>
       </c>
       <c r="K15">
-        <v>1.040653608833985</v>
+        <v>1.046515436048653</v>
       </c>
       <c r="L15">
-        <v>1.03326802751974</v>
+        <v>1.039699337978797</v>
       </c>
       <c r="M15">
-        <v>1.041993750516927</v>
+        <v>1.048284499028069</v>
       </c>
       <c r="N15">
-        <v>1.033851294064311</v>
+        <v>1.040157982554119</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008224159860861</v>
+        <v>1.012810172014246</v>
       </c>
       <c r="D16">
-        <v>1.030207513309042</v>
+        <v>1.034551358607164</v>
       </c>
       <c r="E16">
-        <v>1.022940239518415</v>
+        <v>1.02772647379353</v>
       </c>
       <c r="F16">
-        <v>1.032016155370965</v>
+        <v>1.03666079797112</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053276102561647</v>
+        <v>1.055663049979796</v>
       </c>
       <c r="J16">
-        <v>1.036039483423574</v>
+        <v>1.040449409289758</v>
       </c>
       <c r="K16">
-        <v>1.044016830143686</v>
+        <v>1.048288664040774</v>
       </c>
       <c r="L16">
-        <v>1.036871796979422</v>
+        <v>1.041577272901378</v>
       </c>
       <c r="M16">
-        <v>1.045795394064938</v>
+        <v>1.050363413455991</v>
       </c>
       <c r="N16">
-        <v>1.037510778325426</v>
+        <v>1.041926966792165</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.011256137836358</v>
+        <v>1.014636451019335</v>
       </c>
       <c r="D17">
-        <v>1.032627065931595</v>
+        <v>1.035981544488053</v>
       </c>
       <c r="E17">
-        <v>1.025515562962147</v>
+        <v>1.029227090749779</v>
       </c>
       <c r="F17">
-        <v>1.03471063887674</v>
+        <v>1.038283697335958</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054419878307057</v>
+        <v>1.056342169330739</v>
       </c>
       <c r="J17">
-        <v>1.038288527163618</v>
+        <v>1.041543563241596</v>
       </c>
       <c r="K17">
-        <v>1.046086226944203</v>
+        <v>1.049386788230814</v>
       </c>
       <c r="L17">
-        <v>1.039090528884029</v>
+        <v>1.042741361032851</v>
       </c>
       <c r="M17">
-        <v>1.048136257401797</v>
+        <v>1.051652196397644</v>
       </c>
       <c r="N17">
-        <v>1.039763015965549</v>
+        <v>1.043022674568115</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013004838429305</v>
+        <v>1.015693916882246</v>
       </c>
       <c r="D18">
-        <v>1.034023102233677</v>
+        <v>1.036810089344156</v>
       </c>
       <c r="E18">
-        <v>1.027001810196599</v>
+        <v>1.03009677277092</v>
       </c>
       <c r="F18">
-        <v>1.036265676049715</v>
+        <v>1.039224184328628</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055078086972559</v>
+        <v>1.056734323444653</v>
       </c>
       <c r="J18">
-        <v>1.039585384232857</v>
+        <v>1.042176862439659</v>
       </c>
       <c r="K18">
-        <v>1.047279304989244</v>
+        <v>1.050022306410821</v>
       </c>
       <c r="L18">
-        <v>1.040370184614571</v>
+        <v>1.04341546066043</v>
       </c>
       <c r="M18">
-        <v>1.049486461534086</v>
+        <v>1.05239854473299</v>
       </c>
       <c r="N18">
-        <v>1.041061714720578</v>
+        <v>1.04365687312368</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013597817387815</v>
+        <v>1.016053185709268</v>
       </c>
       <c r="D19">
-        <v>1.034496583466053</v>
+        <v>1.037091654196984</v>
       </c>
       <c r="E19">
-        <v>1.027505944814292</v>
+        <v>1.030392374280872</v>
       </c>
       <c r="F19">
-        <v>1.036793147900107</v>
+        <v>1.039543841522383</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055301032121858</v>
+        <v>1.056867372208859</v>
       </c>
       <c r="J19">
-        <v>1.040025093491913</v>
+        <v>1.042391979780055</v>
       </c>
       <c r="K19">
-        <v>1.047683794211706</v>
+        <v>1.050238163842887</v>
       </c>
       <c r="L19">
-        <v>1.040804108222052</v>
+        <v>1.043644491631346</v>
       </c>
       <c r="M19">
-        <v>1.049944326057455</v>
+        <v>1.052652129681091</v>
       </c>
       <c r="N19">
-        <v>1.041502048417217</v>
+        <v>1.043872295955374</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010932901623284</v>
+        <v>1.014441316874394</v>
       </c>
       <c r="D20">
-        <v>1.032369061263177</v>
+        <v>1.035828687277864</v>
       </c>
       <c r="E20">
-        <v>1.025240913409873</v>
+        <v>1.029066671279587</v>
       </c>
       <c r="F20">
-        <v>1.034423279106509</v>
+        <v>1.03811021224017</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054298093242612</v>
+        <v>1.056269717976305</v>
       </c>
       <c r="J20">
-        <v>1.038048787682758</v>
+        <v>1.041426680385651</v>
       </c>
       <c r="K20">
-        <v>1.045865656692987</v>
+        <v>1.049269489391892</v>
       </c>
       <c r="L20">
-        <v>1.038853991618997</v>
+        <v>1.042616974020149</v>
       </c>
       <c r="M20">
-        <v>1.047886688452213</v>
+        <v>1.051514481096583</v>
       </c>
       <c r="N20">
-        <v>1.039522936027128</v>
+        <v>1.042905625725109</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002030374055023</v>
+        <v>1.009108218281293</v>
       </c>
       <c r="D21">
-        <v>1.025268774359456</v>
+        <v>1.031655223681692</v>
       </c>
       <c r="E21">
-        <v>1.017685677591577</v>
+        <v>1.024689868480539</v>
       </c>
       <c r="F21">
-        <v>1.026518598388884</v>
+        <v>1.033376318890177</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050930172649157</v>
+        <v>1.054279567133728</v>
       </c>
       <c r="J21">
-        <v>1.031443450759417</v>
+        <v>1.038230003590404</v>
       </c>
       <c r="K21">
-        <v>1.039786730795589</v>
+        <v>1.04606071058932</v>
       </c>
       <c r="L21">
-        <v>1.032339561159908</v>
+        <v>1.039218109761985</v>
       </c>
       <c r="M21">
-        <v>1.041014401752568</v>
+        <v>1.047751804030094</v>
       </c>
       <c r="N21">
-        <v>1.032908218767713</v>
+        <v>1.039704409282148</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9962359498882258</v>
+        <v>1.005680670668995</v>
       </c>
       <c r="D22">
-        <v>1.02065360815743</v>
+        <v>1.028977326772745</v>
       </c>
       <c r="E22">
-        <v>1.012777740201551</v>
+        <v>1.021884518242157</v>
       </c>
       <c r="F22">
-        <v>1.02138383743409</v>
+        <v>1.030341463471994</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048725050788099</v>
+        <v>1.05299094122222</v>
       </c>
       <c r="J22">
-        <v>1.027142244445979</v>
+        <v>1.036173542408337</v>
       </c>
       <c r="K22">
-        <v>1.035826724000267</v>
+        <v>1.043995794330942</v>
       </c>
       <c r="L22">
-        <v>1.028100247468034</v>
+        <v>1.037034557500162</v>
       </c>
       <c r="M22">
-        <v>1.036543254483433</v>
+        <v>1.045334896746483</v>
       </c>
       <c r="N22">
-        <v>1.028600904247955</v>
+        <v>1.037645027689323</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9993273314228867</v>
+        <v>1.007504954131318</v>
       </c>
       <c r="D23">
-        <v>1.023115205216643</v>
+        <v>1.030402183077886</v>
       </c>
       <c r="E23">
-        <v>1.015395224830476</v>
+        <v>1.02337690811566</v>
       </c>
       <c r="F23">
-        <v>1.024122275113103</v>
+        <v>1.031956006350986</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049902695353237</v>
+        <v>1.053677687120851</v>
       </c>
       <c r="J23">
-        <v>1.029437129143529</v>
+        <v>1.037268248744137</v>
       </c>
       <c r="K23">
-        <v>1.037939702852576</v>
+        <v>1.045095061725262</v>
       </c>
       <c r="L23">
-        <v>1.03036185080286</v>
+        <v>1.038196636586325</v>
       </c>
       <c r="M23">
-        <v>1.038928437703477</v>
+        <v>1.046621131631811</v>
       </c>
       <c r="N23">
-        <v>1.030899047945002</v>
+        <v>1.038741288633685</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011079019148263</v>
+        <v>1.014529513566381</v>
       </c>
       <c r="D24">
-        <v>1.032485689444542</v>
+        <v>1.035897774327672</v>
       </c>
       <c r="E24">
-        <v>1.025365064689526</v>
+        <v>1.029139175215295</v>
       </c>
       <c r="F24">
-        <v>1.034553175786201</v>
+        <v>1.038188621574392</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054353150212489</v>
+        <v>1.056302467860001</v>
       </c>
       <c r="J24">
-        <v>1.038157161762892</v>
+        <v>1.041479509841565</v>
       </c>
       <c r="K24">
-        <v>1.045965365926775</v>
+        <v>1.049322507112004</v>
       </c>
       <c r="L24">
-        <v>1.038960917279718</v>
+        <v>1.042673194253217</v>
       </c>
       <c r="M24">
-        <v>1.047999504692205</v>
+        <v>1.0515767253015</v>
       </c>
       <c r="N24">
-        <v>1.039631464010886</v>
+        <v>1.042958530204909</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02394649851918</v>
+        <v>1.022378167553925</v>
       </c>
       <c r="D25">
-        <v>1.04276664223588</v>
+        <v>1.042054407349738</v>
       </c>
       <c r="E25">
-        <v>1.036316470652594</v>
+        <v>1.035607512673556</v>
       </c>
       <c r="F25">
-        <v>1.04601186230593</v>
+        <v>1.045182493606035</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059169789661517</v>
+        <v>1.05919355980596</v>
       </c>
       <c r="J25">
-        <v>1.047693995013638</v>
+        <v>1.046175194108258</v>
       </c>
       <c r="K25">
-        <v>1.05473545059984</v>
+        <v>1.054033165203624</v>
       </c>
       <c r="L25">
-        <v>1.048376014790734</v>
+        <v>1.047677117046045</v>
       </c>
       <c r="M25">
-        <v>1.057935553218847</v>
+        <v>1.057117681398187</v>
       </c>
       <c r="N25">
-        <v>1.049181840658739</v>
+        <v>1.047660882881864</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028415067075898</v>
+        <v>1.018486316622454</v>
       </c>
       <c r="D2">
-        <v>1.046800934136201</v>
+        <v>1.037718805223249</v>
       </c>
       <c r="E2">
-        <v>1.040604995492723</v>
+        <v>1.031887688503912</v>
       </c>
       <c r="F2">
-        <v>1.050584238301896</v>
+        <v>1.041399680301273</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06138243501129</v>
+        <v>1.055461918535519</v>
       </c>
       <c r="J2">
-        <v>1.049777877585914</v>
+        <v>1.040127821952307</v>
       </c>
       <c r="K2">
-        <v>1.057644602744894</v>
+        <v>1.048676525095617</v>
       </c>
       <c r="L2">
-        <v>1.051526202020601</v>
+        <v>1.042919957412996</v>
       </c>
       <c r="M2">
-        <v>1.061381121133755</v>
+        <v>1.052310877557912</v>
       </c>
       <c r="N2">
-        <v>1.051268682583291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017212236399858</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045488776237671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032678551704447</v>
+        <v>1.021906789825463</v>
       </c>
       <c r="D3">
-        <v>1.050158594953991</v>
+        <v>1.040114383320396</v>
       </c>
       <c r="E3">
-        <v>1.04414647655319</v>
+        <v>1.03463958814882</v>
       </c>
       <c r="F3">
-        <v>1.054411265253931</v>
+        <v>1.044343568125282</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062907404062388</v>
+        <v>1.056400088631761</v>
       </c>
       <c r="J3">
-        <v>1.0523163435489</v>
+        <v>1.041817560349333</v>
       </c>
       <c r="K3">
-        <v>1.060187523718147</v>
+        <v>1.050258485426564</v>
       </c>
       <c r="L3">
-        <v>1.054244015423818</v>
+        <v>1.044847632989387</v>
       </c>
       <c r="M3">
-        <v>1.064392244550726</v>
+        <v>1.054438842332206</v>
       </c>
       <c r="N3">
-        <v>1.053810753459111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017777601416452</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046604698649654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03538478897592</v>
+        <v>1.024084626670993</v>
       </c>
       <c r="D4">
-        <v>1.052292116833379</v>
+        <v>1.041643288995099</v>
       </c>
       <c r="E4">
-        <v>1.046399760993753</v>
+        <v>1.036397387751967</v>
       </c>
       <c r="F4">
-        <v>1.05684582446022</v>
+        <v>1.046223873341371</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063865466146542</v>
+        <v>1.056988626220956</v>
       </c>
       <c r="J4">
-        <v>1.05392470384857</v>
+        <v>1.042891685062668</v>
       </c>
       <c r="K4">
-        <v>1.061797871626657</v>
+        <v>1.051263810180208</v>
       </c>
       <c r="L4">
-        <v>1.055968666010884</v>
+        <v>1.046075511483898</v>
       </c>
       <c r="M4">
-        <v>1.066303365682768</v>
+        <v>1.055794676805455</v>
       </c>
       <c r="N4">
-        <v>1.055421397814888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018137061703818</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.0473164229487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036510328056979</v>
+        <v>1.024994722664734</v>
       </c>
       <c r="D5">
-        <v>1.053179960681371</v>
+        <v>1.042284889080015</v>
       </c>
       <c r="E5">
-        <v>1.047338159857015</v>
+        <v>1.037133801657447</v>
       </c>
       <c r="F5">
-        <v>1.057859623477772</v>
+        <v>1.047011854996632</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064261517129048</v>
+        <v>1.05723381451353</v>
       </c>
       <c r="J5">
-        <v>1.054592898675533</v>
+        <v>1.043341461075611</v>
       </c>
       <c r="K5">
-        <v>1.062466685616895</v>
+        <v>1.0516859190662</v>
       </c>
       <c r="L5">
-        <v>1.056685812287893</v>
+        <v>1.046589898373127</v>
       </c>
       <c r="M5">
-        <v>1.067098133403238</v>
+        <v>1.056362935153392</v>
       </c>
       <c r="N5">
-        <v>1.056090541555148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018287869822893</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047621981287858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036698609373241</v>
+        <v>1.025150447646164</v>
       </c>
       <c r="D6">
-        <v>1.053328508347711</v>
+        <v>1.042396958514963</v>
       </c>
       <c r="E6">
-        <v>1.047495208371003</v>
+        <v>1.037260511198971</v>
       </c>
       <c r="F6">
-        <v>1.058029285443503</v>
+        <v>1.047147766933085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064327626135272</v>
+        <v>1.057277330189364</v>
       </c>
       <c r="J6">
-        <v>1.054704631167742</v>
+        <v>1.043420034016945</v>
       </c>
       <c r="K6">
-        <v>1.062578509317959</v>
+        <v>1.051761124272306</v>
       </c>
       <c r="L6">
-        <v>1.056805767795336</v>
+        <v>1.046679337528357</v>
       </c>
       <c r="M6">
-        <v>1.067231077378412</v>
+        <v>1.056461959332485</v>
       </c>
       <c r="N6">
-        <v>1.056202432720313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018314546977489</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047683812100618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035399875745589</v>
+        <v>1.024105928741851</v>
       </c>
       <c r="D7">
-        <v>1.052304015603869</v>
+        <v>1.041664280325779</v>
       </c>
       <c r="E7">
-        <v>1.046412334456046</v>
+        <v>1.036416299055857</v>
       </c>
       <c r="F7">
-        <v>1.056859408560322</v>
+        <v>1.046244982949068</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063870784401633</v>
+        <v>1.056998889044661</v>
       </c>
       <c r="J7">
-        <v>1.053933663283492</v>
+        <v>1.042906603292088</v>
       </c>
       <c r="K7">
-        <v>1.061806840187965</v>
+        <v>1.051281730822414</v>
       </c>
       <c r="L7">
-        <v>1.055978279282739</v>
+        <v>1.046091353053843</v>
       </c>
       <c r="M7">
-        <v>1.066314019133409</v>
+        <v>1.055812733416696</v>
       </c>
       <c r="N7">
-        <v>1.055430369973236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018142961907235</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047349003033743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029867060218228</v>
+        <v>1.019661067167434</v>
       </c>
       <c r="D8">
-        <v>1.047943938043077</v>
+        <v>1.038548134382191</v>
       </c>
       <c r="E8">
-        <v>1.04180995948142</v>
+        <v>1.032833761143952</v>
       </c>
       <c r="F8">
-        <v>1.051886444490669</v>
+        <v>1.042412809994933</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06190384025783</v>
+        <v>1.055791435718767</v>
       </c>
       <c r="J8">
-        <v>1.050642984704999</v>
+        <v>1.040713919621278</v>
       </c>
       <c r="K8">
-        <v>1.058511399456498</v>
+        <v>1.049230085933506</v>
       </c>
       <c r="L8">
-        <v>1.05245187395606</v>
+        <v>1.0435866130556</v>
       </c>
       <c r="M8">
-        <v>1.06240662102597</v>
+        <v>1.0530473589224</v>
       </c>
       <c r="N8">
-        <v>1.052135018253715</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017409487241005</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.045902871336874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019695831103209</v>
+        <v>1.011532025697715</v>
       </c>
       <c r="D9">
-        <v>1.03994845604098</v>
+        <v>1.032869729504898</v>
       </c>
       <c r="E9">
-        <v>1.033393281044773</v>
+        <v>1.026324894507566</v>
       </c>
       <c r="F9">
-        <v>1.042788652704926</v>
+        <v>1.035447970664014</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058210900770894</v>
+        <v>1.053507963751529</v>
       </c>
       <c r="J9">
-        <v>1.044571748793687</v>
+        <v>1.036684028950773</v>
       </c>
       <c r="K9">
-        <v>1.052425020152496</v>
+        <v>1.045451114505113</v>
       </c>
       <c r="L9">
-        <v>1.045966850813908</v>
+        <v>1.039004833903138</v>
       </c>
       <c r="M9">
-        <v>1.055223667057102</v>
+        <v>1.047990966465947</v>
       </c>
       <c r="N9">
-        <v>1.046055160491028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.0160605555437</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043227789114511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012602718986311</v>
+        <v>1.005910260939282</v>
       </c>
       <c r="D10">
-        <v>1.034388958757419</v>
+        <v>1.028967128316996</v>
       </c>
       <c r="E10">
-        <v>1.027556121760911</v>
+        <v>1.021857083474029</v>
       </c>
       <c r="F10">
-        <v>1.036476555468868</v>
+        <v>1.030666469602304</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055585761215613</v>
+        <v>1.051886126422609</v>
       </c>
       <c r="J10">
-        <v>1.040325088156534</v>
+        <v>1.033891332658434</v>
       </c>
       <c r="K10">
-        <v>1.048163881219001</v>
+        <v>1.042832353697959</v>
       </c>
       <c r="L10">
-        <v>1.041445049589066</v>
+        <v>1.035842605621276</v>
       </c>
       <c r="M10">
-        <v>1.05021703215645</v>
+        <v>1.044503260012676</v>
       </c>
       <c r="N10">
-        <v>1.041802469108671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.015126645579296</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041392862742219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009450342110996</v>
+        <v>1.003434922473911</v>
       </c>
       <c r="D11">
-        <v>1.031922709991284</v>
+        <v>1.027261550300352</v>
       </c>
       <c r="E11">
-        <v>1.024970211488113</v>
+        <v>1.019900336048656</v>
       </c>
       <c r="F11">
-        <v>1.033679569848507</v>
+        <v>1.028572869185078</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054407796434584</v>
+        <v>1.051167047299001</v>
       </c>
       <c r="J11">
-        <v>1.038435192787574</v>
+        <v>1.032665499544344</v>
       </c>
       <c r="K11">
-        <v>1.046266716268712</v>
+        <v>1.041687036994632</v>
       </c>
       <c r="L11">
-        <v>1.039436104811929</v>
+        <v>1.034456472294174</v>
       </c>
       <c r="M11">
-        <v>1.047993111649298</v>
+        <v>1.042975336358705</v>
       </c>
       <c r="N11">
-        <v>1.039909889871514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014718185017935</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.040615673683679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008266606062873</v>
+        <v>1.002501029020045</v>
       </c>
       <c r="D12">
-        <v>1.030997362588024</v>
+        <v>1.026615040561203</v>
       </c>
       <c r="E12">
-        <v>1.024000486055453</v>
+        <v>1.019162103538716</v>
       </c>
       <c r="F12">
-        <v>1.03263058352172</v>
+        <v>1.027782497433695</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053963815973359</v>
+        <v>1.050891457199317</v>
       </c>
       <c r="J12">
-        <v>1.03772518250973</v>
+        <v>1.032199916684043</v>
       </c>
       <c r="K12">
-        <v>1.045553859145882</v>
+        <v>1.041249505100586</v>
       </c>
       <c r="L12">
-        <v>1.038681880481736</v>
+        <v>1.033931171000827</v>
       </c>
       <c r="M12">
-        <v>1.04715824212043</v>
+        <v>1.042396106842363</v>
       </c>
       <c r="N12">
-        <v>1.039198871297636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014562350179214</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040306328746533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008521111415361</v>
+        <v>1.002700495602985</v>
       </c>
       <c r="D13">
-        <v>1.031196279327648</v>
+        <v>1.026752318673474</v>
       </c>
       <c r="E13">
-        <v>1.024208919147296</v>
+        <v>1.019319471686403</v>
       </c>
       <c r="F13">
-        <v>1.032856057899411</v>
+        <v>1.027950894659204</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054059346245211</v>
+        <v>1.050949839274454</v>
       </c>
       <c r="J13">
-        <v>1.037877850818483</v>
+        <v>1.032298799000063</v>
       </c>
       <c r="K13">
-        <v>1.045707144683024</v>
+        <v>1.041341951758025</v>
       </c>
       <c r="L13">
-        <v>1.038844032690237</v>
+        <v>1.034042846593969</v>
       </c>
       <c r="M13">
-        <v>1.047337729522182</v>
+        <v>1.042519196342903</v>
       </c>
       <c r="N13">
-        <v>1.039351756412898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014595303340116</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.04036921575229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00935275909219</v>
+        <v>1.003357369263251</v>
       </c>
       <c r="D14">
-        <v>1.031846412145814</v>
+        <v>1.027207515895846</v>
       </c>
       <c r="E14">
-        <v>1.024890244015734</v>
+        <v>1.019838898239805</v>
       </c>
       <c r="F14">
-        <v>1.033593068410495</v>
+        <v>1.02850705545294</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054371229477329</v>
+        <v>1.051143957661915</v>
       </c>
       <c r="J14">
-        <v>1.03837666878674</v>
+        <v>1.03262659715714</v>
       </c>
       <c r="K14">
-        <v>1.04620795991465</v>
+        <v>1.041650273745524</v>
       </c>
       <c r="L14">
-        <v>1.039373925978901</v>
+        <v>1.034412626718186</v>
       </c>
       <c r="M14">
-        <v>1.047924283067856</v>
+        <v>1.042926967406449</v>
       </c>
       <c r="N14">
-        <v>1.039851282759886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014705102857508</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.040588621040823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009863448580899</v>
+        <v>1.003763440331408</v>
       </c>
       <c r="D15">
-        <v>1.032245738813856</v>
+        <v>1.027490559809661</v>
       </c>
       <c r="E15">
-        <v>1.025308797869216</v>
+        <v>1.020160666535561</v>
       </c>
       <c r="F15">
-        <v>1.03404581698017</v>
+        <v>1.028851749881848</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054562531533159</v>
+        <v>1.051264852975557</v>
       </c>
       <c r="J15">
-        <v>1.038682933649739</v>
+        <v>1.03283034284702</v>
       </c>
       <c r="K15">
-        <v>1.046515436048653</v>
+        <v>1.041842865376833</v>
       </c>
       <c r="L15">
-        <v>1.039699337978797</v>
+        <v>1.034642267062982</v>
       </c>
       <c r="M15">
-        <v>1.048284499028069</v>
+        <v>1.043180307468538</v>
       </c>
       <c r="N15">
-        <v>1.040157982554119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014773633782333</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.040730616972265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,81 +1091,93 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012810172014246</v>
+        <v>1.006094540044152</v>
       </c>
       <c r="D16">
-        <v>1.034551358607164</v>
+        <v>1.029107539852905</v>
       </c>
       <c r="E16">
-        <v>1.02772647379353</v>
+        <v>1.022007210958574</v>
       </c>
       <c r="F16">
-        <v>1.03666079797112</v>
+        <v>1.030828670262072</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055663049979796</v>
+        <v>1.051948978664232</v>
       </c>
       <c r="J16">
-        <v>1.040449409289758</v>
+        <v>1.033992404858757</v>
       </c>
       <c r="K16">
-        <v>1.048288664040774</v>
+        <v>1.042935216125918</v>
       </c>
       <c r="L16">
-        <v>1.041577272901378</v>
+        <v>1.035954625211024</v>
       </c>
       <c r="M16">
-        <v>1.050363413455991</v>
+        <v>1.044627641784695</v>
       </c>
       <c r="N16">
-        <v>1.041926966792165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015162754100127</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.041506080456386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014636451019335</v>
+        <v>1.007542385400414</v>
       </c>
       <c r="D17">
-        <v>1.035981544488053</v>
+        <v>1.030113372030352</v>
       </c>
       <c r="E17">
-        <v>1.029227090749779</v>
+        <v>1.023156289914133</v>
       </c>
       <c r="F17">
-        <v>1.038283697335958</v>
+        <v>1.032058809452147</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056342169330739</v>
+        <v>1.052371226495257</v>
       </c>
       <c r="J17">
-        <v>1.041543563241596</v>
+        <v>1.034713774882715</v>
       </c>
       <c r="K17">
-        <v>1.049386788230814</v>
+        <v>1.043613231798955</v>
       </c>
       <c r="L17">
-        <v>1.042741361032851</v>
+        <v>1.036770132280346</v>
       </c>
       <c r="M17">
-        <v>1.051652196397644</v>
+        <v>1.045527148738454</v>
       </c>
       <c r="N17">
-        <v>1.043022674568115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01540433356571</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.04198802294676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015693916882246</v>
+        <v>1.008375308620646</v>
       </c>
       <c r="D18">
-        <v>1.036810089344156</v>
+        <v>1.030688453967226</v>
       </c>
       <c r="E18">
-        <v>1.03009677277092</v>
+        <v>1.023816815048876</v>
       </c>
       <c r="F18">
-        <v>1.039224184328628</v>
+        <v>1.032765409576652</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056734323444653</v>
+        <v>1.052610226139218</v>
       </c>
       <c r="J18">
-        <v>1.042176862439659</v>
+        <v>1.035125598611102</v>
       </c>
       <c r="K18">
-        <v>1.050022306410821</v>
+        <v>1.043997686560596</v>
       </c>
       <c r="L18">
-        <v>1.04341546066043</v>
+        <v>1.037236724197657</v>
       </c>
       <c r="M18">
-        <v>1.05239854473299</v>
+        <v>1.046041561484061</v>
       </c>
       <c r="N18">
-        <v>1.04365687312368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015541528748311</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042248293389205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016053185709268</v>
+        <v>1.008663486957327</v>
       </c>
       <c r="D19">
-        <v>1.037091654196984</v>
+        <v>1.030890692988034</v>
       </c>
       <c r="E19">
-        <v>1.030392374280872</v>
+        <v>1.024046482640401</v>
       </c>
       <c r="F19">
-        <v>1.039543841522383</v>
+        <v>1.033011480040524</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056867372208859</v>
+        <v>1.052695045005714</v>
       </c>
       <c r="J19">
-        <v>1.042391979780055</v>
+        <v>1.03527040829541</v>
       </c>
       <c r="K19">
-        <v>1.050238163842887</v>
+        <v>1.044134894294759</v>
       </c>
       <c r="L19">
-        <v>1.043644491631346</v>
+        <v>1.037400272402436</v>
       </c>
       <c r="M19">
-        <v>1.052652129681091</v>
+        <v>1.046222100932394</v>
       </c>
       <c r="N19">
-        <v>1.043872295955374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015590343916827</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042351645289085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014441316874394</v>
+        <v>1.007387067908715</v>
       </c>
       <c r="D20">
-        <v>1.035828687277864</v>
+        <v>1.030005098456677</v>
       </c>
       <c r="E20">
-        <v>1.029066671279587</v>
+        <v>1.023032840877711</v>
       </c>
       <c r="F20">
-        <v>1.03811021224017</v>
+        <v>1.031926616376</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056269717976305</v>
+        <v>1.052325802100912</v>
       </c>
       <c r="J20">
-        <v>1.041426680385651</v>
+        <v>1.034636170666038</v>
       </c>
       <c r="K20">
-        <v>1.049269489391892</v>
+        <v>1.043540094398258</v>
       </c>
       <c r="L20">
-        <v>1.042616974020149</v>
+        <v>1.036682425647556</v>
       </c>
       <c r="M20">
-        <v>1.051514481096583</v>
+        <v>1.045430381751381</v>
       </c>
       <c r="N20">
-        <v>1.042905625725109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015378286748002</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041934987790414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009108218281293</v>
+        <v>1.003171105876238</v>
       </c>
       <c r="D21">
-        <v>1.031655223681692</v>
+        <v>1.02708271672252</v>
       </c>
       <c r="E21">
-        <v>1.024689868480539</v>
+        <v>1.019692975864796</v>
       </c>
       <c r="F21">
-        <v>1.033376318890177</v>
+        <v>1.028351306732377</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054279567133728</v>
+        <v>1.051092023143789</v>
       </c>
       <c r="J21">
-        <v>1.038230003590404</v>
+        <v>1.032536840172632</v>
       </c>
       <c r="K21">
-        <v>1.04606071058932</v>
+        <v>1.041568544017073</v>
       </c>
       <c r="L21">
-        <v>1.039218109761985</v>
+        <v>1.034310622872163</v>
       </c>
       <c r="M21">
-        <v>1.047751804030094</v>
+        <v>1.042814751662747</v>
       </c>
       <c r="N21">
-        <v>1.039704409282148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014675836283582</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040544250762474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.005680670668995</v>
+        <v>1.000463588962871</v>
       </c>
       <c r="D22">
-        <v>1.028977326772745</v>
+        <v>1.0252057437767</v>
       </c>
       <c r="E22">
-        <v>1.021884518242157</v>
+        <v>1.017553733680376</v>
       </c>
       <c r="F22">
-        <v>1.030341463471994</v>
+        <v>1.026060391766481</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05299094122222</v>
+        <v>1.050287149337462</v>
       </c>
       <c r="J22">
-        <v>1.036173542408337</v>
+        <v>1.031183447978868</v>
       </c>
       <c r="K22">
-        <v>1.043995794330942</v>
+        <v>1.040293878658645</v>
       </c>
       <c r="L22">
-        <v>1.037034557500162</v>
+        <v>1.032785287977821</v>
       </c>
       <c r="M22">
-        <v>1.045334896746483</v>
+        <v>1.041132681381441</v>
       </c>
       <c r="N22">
-        <v>1.037645027689323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.014222065350457</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039629616876167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007504954131318</v>
+        <v>1.001895265772362</v>
       </c>
       <c r="D23">
-        <v>1.030402183077886</v>
+        <v>1.026192603449529</v>
       </c>
       <c r="E23">
-        <v>1.02337690811566</v>
+        <v>1.018682524804761</v>
       </c>
       <c r="F23">
-        <v>1.031956006350986</v>
+        <v>1.027268656584166</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053677687120851</v>
+        <v>1.050709897898214</v>
       </c>
       <c r="J23">
-        <v>1.037268248744137</v>
+        <v>1.031895386127551</v>
       </c>
       <c r="K23">
-        <v>1.045095061725262</v>
+        <v>1.040961219946551</v>
       </c>
       <c r="L23">
-        <v>1.038196636586325</v>
+        <v>1.033588286899628</v>
       </c>
       <c r="M23">
-        <v>1.046621131631811</v>
+        <v>1.042017836197094</v>
       </c>
       <c r="N23">
-        <v>1.038741288633685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014459800142448</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.040091885782246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014529513566381</v>
+        <v>1.007443582516778</v>
       </c>
       <c r="D24">
-        <v>1.035897774327672</v>
+        <v>1.030035936889014</v>
       </c>
       <c r="E24">
-        <v>1.029139175215295</v>
+        <v>1.023075041387248</v>
       </c>
       <c r="F24">
-        <v>1.038188621574392</v>
+        <v>1.031970776301684</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056302467860001</v>
+        <v>1.052336165476858</v>
       </c>
       <c r="J24">
-        <v>1.041479509841565</v>
+        <v>1.034658078345281</v>
       </c>
       <c r="K24">
-        <v>1.049322507112004</v>
+        <v>1.043555349322597</v>
       </c>
       <c r="L24">
-        <v>1.042673194253217</v>
+        <v>1.036708699074697</v>
       </c>
       <c r="M24">
-        <v>1.0515767253015</v>
+        <v>1.045458784772647</v>
       </c>
       <c r="N24">
-        <v>1.042958530204909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015384109593406</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041918589580004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022378167553925</v>
+        <v>1.013682927017849</v>
       </c>
       <c r="D25">
-        <v>1.042054407349738</v>
+        <v>1.034377596590149</v>
       </c>
       <c r="E25">
-        <v>1.035607512673556</v>
+        <v>1.028044311131416</v>
       </c>
       <c r="F25">
-        <v>1.045182493606035</v>
+        <v>1.037289174474649</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05919355980596</v>
+        <v>1.054126664930767</v>
       </c>
       <c r="J25">
-        <v>1.046175194108258</v>
+        <v>1.037758420371021</v>
       </c>
       <c r="K25">
-        <v>1.054033165203624</v>
+        <v>1.046464695068742</v>
       </c>
       <c r="L25">
-        <v>1.047677117046045</v>
+        <v>1.040222333004035</v>
       </c>
       <c r="M25">
-        <v>1.057117681398187</v>
+        <v>1.049334944068682</v>
       </c>
       <c r="N25">
-        <v>1.047660882881864</v>
+        <v>1.016421650842301</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.04397277478914</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018486316622454</v>
+        <v>1.017326573700756</v>
       </c>
       <c r="D2">
-        <v>1.037718805223249</v>
+        <v>1.035863240118634</v>
       </c>
       <c r="E2">
-        <v>1.031887688503912</v>
+        <v>1.030746708098088</v>
       </c>
       <c r="F2">
-        <v>1.041399680301273</v>
+        <v>1.039913034229624</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055461918535519</v>
+        <v>1.054468613380198</v>
       </c>
       <c r="J2">
-        <v>1.040127821952307</v>
+        <v>1.039001118111284</v>
       </c>
       <c r="K2">
-        <v>1.048676525095617</v>
+        <v>1.046844569077015</v>
       </c>
       <c r="L2">
-        <v>1.042919957412996</v>
+        <v>1.0417936875182</v>
       </c>
       <c r="M2">
-        <v>1.052310877557912</v>
+        <v>1.05084297174542</v>
       </c>
       <c r="N2">
-        <v>1.017212236399858</v>
+        <v>1.017498828965679</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045488776237671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044202143793225</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024467572834213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021906789825463</v>
+        <v>1.020620712682914</v>
       </c>
       <c r="D3">
-        <v>1.040114383320396</v>
+        <v>1.038089531208847</v>
       </c>
       <c r="E3">
-        <v>1.03463958814882</v>
+        <v>1.033376807691428</v>
       </c>
       <c r="F3">
-        <v>1.044343568125282</v>
+        <v>1.042712230798228</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056400088631761</v>
+        <v>1.055309431687181</v>
       </c>
       <c r="J3">
-        <v>1.041817560349333</v>
+        <v>1.040564596332746</v>
       </c>
       <c r="K3">
-        <v>1.050258485426564</v>
+        <v>1.048257185326949</v>
       </c>
       <c r="L3">
-        <v>1.044847632989387</v>
+        <v>1.043599720202474</v>
       </c>
       <c r="M3">
-        <v>1.054438842332206</v>
+        <v>1.052826281590809</v>
       </c>
       <c r="N3">
-        <v>1.017777601416452</v>
+        <v>1.017914196092902</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046604698649654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045198052660762</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024745080547568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024084626670993</v>
+        <v>1.022718761665565</v>
       </c>
       <c r="D4">
-        <v>1.041643288995099</v>
+        <v>1.039511081272876</v>
       </c>
       <c r="E4">
-        <v>1.036397387751967</v>
+        <v>1.035057577066574</v>
       </c>
       <c r="F4">
-        <v>1.046223873341371</v>
+        <v>1.044500941267701</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056988626220956</v>
+        <v>1.055836136577441</v>
       </c>
       <c r="J4">
-        <v>1.042891685062668</v>
+        <v>1.041558647285268</v>
       </c>
       <c r="K4">
-        <v>1.051263810180208</v>
+        <v>1.049154929000519</v>
       </c>
       <c r="L4">
-        <v>1.046075511483898</v>
+        <v>1.044750527662393</v>
       </c>
       <c r="M4">
-        <v>1.055794676805455</v>
+        <v>1.054090382699917</v>
       </c>
       <c r="N4">
-        <v>1.018137061703818</v>
+        <v>1.018178370739715</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.0473164229487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045833792806878</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024919199846562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024994722664734</v>
+        <v>1.023595657116209</v>
       </c>
       <c r="D5">
-        <v>1.042284889080015</v>
+        <v>1.040107967681711</v>
       </c>
       <c r="E5">
-        <v>1.037133801657447</v>
+        <v>1.035761919475677</v>
       </c>
       <c r="F5">
-        <v>1.047011854996632</v>
+        <v>1.045250786932036</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05723381451353</v>
+        <v>1.056055537979404</v>
       </c>
       <c r="J5">
-        <v>1.043341461075611</v>
+        <v>1.041975032263786</v>
       </c>
       <c r="K5">
-        <v>1.0516859190662</v>
+        <v>1.049532188143661</v>
       </c>
       <c r="L5">
-        <v>1.046589898373127</v>
+        <v>1.045232795260457</v>
       </c>
       <c r="M5">
-        <v>1.056362935153392</v>
+        <v>1.05462041171046</v>
       </c>
       <c r="N5">
-        <v>1.018287869822893</v>
+        <v>1.018289257953223</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047621981287858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.0461083514205</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024992249324776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025150447646164</v>
+        <v>1.023745703199604</v>
       </c>
       <c r="D6">
-        <v>1.042396958514963</v>
+        <v>1.040212452604502</v>
       </c>
       <c r="E6">
-        <v>1.037260511198971</v>
+        <v>1.035883146653115</v>
       </c>
       <c r="F6">
-        <v>1.047147766933085</v>
+        <v>1.04538020334238</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057277330189364</v>
+        <v>1.056094665064732</v>
       </c>
       <c r="J6">
-        <v>1.043420034016945</v>
+        <v>1.042047892997289</v>
       </c>
       <c r="K6">
-        <v>1.051761124272306</v>
+        <v>1.049599784488331</v>
       </c>
       <c r="L6">
-        <v>1.046679337528357</v>
+        <v>1.045316743420863</v>
       </c>
       <c r="M6">
-        <v>1.056461959332485</v>
+        <v>1.054712923738861</v>
       </c>
       <c r="N6">
-        <v>1.018314546977489</v>
+        <v>1.018308917839135</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047683812100618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046165672004335</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025005821089316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024105928741851</v>
+        <v>1.02274598725613</v>
       </c>
       <c r="D7">
-        <v>1.041664280325779</v>
+        <v>1.039536166325038</v>
       </c>
       <c r="E7">
-        <v>1.036416299055857</v>
+        <v>1.035081671723158</v>
       </c>
       <c r="F7">
-        <v>1.046244982949068</v>
+        <v>1.044526913946531</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056998889044661</v>
+        <v>1.055849430329864</v>
       </c>
       <c r="J7">
-        <v>1.042906603292088</v>
+        <v>1.041579332701962</v>
       </c>
       <c r="K7">
-        <v>1.051281730822414</v>
+        <v>1.049176889571938</v>
       </c>
       <c r="L7">
-        <v>1.046091353053843</v>
+        <v>1.044771489553168</v>
       </c>
       <c r="M7">
-        <v>1.055812733416696</v>
+        <v>1.054113242577536</v>
       </c>
       <c r="N7">
-        <v>1.018142961907235</v>
+        <v>1.018210304113117</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047349003033743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045871230260073</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024925393593514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019661067167434</v>
+        <v>1.018478351794619</v>
       </c>
       <c r="D8">
-        <v>1.038548134382191</v>
+        <v>1.036649784520303</v>
       </c>
       <c r="E8">
-        <v>1.032833761143952</v>
+        <v>1.031669036391975</v>
       </c>
       <c r="F8">
-        <v>1.042412809994933</v>
+        <v>1.040893883658775</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055791435718767</v>
+        <v>1.054775661766736</v>
       </c>
       <c r="J8">
-        <v>1.040713919621278</v>
+        <v>1.039563785311263</v>
       </c>
       <c r="K8">
-        <v>1.049230085933506</v>
+        <v>1.04735518165278</v>
       </c>
       <c r="L8">
-        <v>1.0435866130556</v>
+        <v>1.042436459604007</v>
       </c>
       <c r="M8">
-        <v>1.0530473589224</v>
+        <v>1.051547010936872</v>
       </c>
       <c r="N8">
-        <v>1.017409487241005</v>
+        <v>1.017727407809831</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045902871336874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044588141184926</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024571721810984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011532025697715</v>
+        <v>1.010656644661433</v>
       </c>
       <c r="D9">
-        <v>1.032869729504898</v>
+        <v>1.031378366073793</v>
       </c>
       <c r="E9">
-        <v>1.026324894507566</v>
+        <v>1.025455487115566</v>
       </c>
       <c r="F9">
-        <v>1.035447970664014</v>
+        <v>1.034278675460123</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053507963751529</v>
+        <v>1.052725969145927</v>
       </c>
       <c r="J9">
-        <v>1.036684028950773</v>
+        <v>1.035838621317206</v>
       </c>
       <c r="K9">
-        <v>1.045451114505113</v>
+        <v>1.043982068507085</v>
       </c>
       <c r="L9">
-        <v>1.039004833903138</v>
+        <v>1.038148639006616</v>
       </c>
       <c r="M9">
-        <v>1.047990966465947</v>
+        <v>1.046839051540989</v>
       </c>
       <c r="N9">
-        <v>1.0160605555437</v>
+        <v>1.016746894220208</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043227789114511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042199740689618</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023895226993925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005910260939282</v>
+        <v>1.005281751039859</v>
       </c>
       <c r="D10">
-        <v>1.028967128316996</v>
+        <v>1.027782217689829</v>
       </c>
       <c r="E10">
-        <v>1.021857083474029</v>
+        <v>1.021221755425426</v>
       </c>
       <c r="F10">
-        <v>1.030666469602304</v>
+        <v>1.029767878347557</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051886126422609</v>
+        <v>1.051282626152548</v>
       </c>
       <c r="J10">
-        <v>1.033891332658434</v>
+        <v>1.033287368569738</v>
       </c>
       <c r="K10">
-        <v>1.042832353697959</v>
+        <v>1.041667341854646</v>
       </c>
       <c r="L10">
-        <v>1.035842605621276</v>
+        <v>1.035218132188904</v>
       </c>
       <c r="M10">
-        <v>1.044503260012676</v>
+        <v>1.043619689760113</v>
       </c>
       <c r="N10">
-        <v>1.015126645579296</v>
+        <v>1.01618618722895</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041392862742219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040581461927589</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023422333489532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003434922473911</v>
+        <v>1.002964136604272</v>
       </c>
       <c r="D11">
-        <v>1.027261550300352</v>
+        <v>1.026247928195012</v>
       </c>
       <c r="E11">
-        <v>1.019900336048656</v>
+        <v>1.019411406882154</v>
       </c>
       <c r="F11">
-        <v>1.028572869185078</v>
+        <v>1.027835125722746</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051167047299001</v>
+        <v>1.050667636406815</v>
       </c>
       <c r="J11">
-        <v>1.032665499544344</v>
+        <v>1.032214121822802</v>
       </c>
       <c r="K11">
-        <v>1.041687036994632</v>
+        <v>1.040691260761557</v>
       </c>
       <c r="L11">
-        <v>1.034456472294174</v>
+        <v>1.033976307634145</v>
       </c>
       <c r="M11">
-        <v>1.042975336358705</v>
+        <v>1.042250534233316</v>
       </c>
       <c r="N11">
-        <v>1.014718185017935</v>
+        <v>1.016130208414623</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040615673683679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039927150178679</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023225758700755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002501029020045</v>
+        <v>1.002094356499819</v>
       </c>
       <c r="D12">
-        <v>1.026615040561203</v>
+        <v>1.025669333230787</v>
       </c>
       <c r="E12">
-        <v>1.019162103538716</v>
+        <v>1.01873251429849</v>
       </c>
       <c r="F12">
-        <v>1.027782497433695</v>
+        <v>1.027109328937859</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050891457199317</v>
+        <v>1.050433630612809</v>
       </c>
       <c r="J12">
-        <v>1.032199916684043</v>
+        <v>1.031810343123199</v>
       </c>
       <c r="K12">
-        <v>1.041249505100586</v>
+        <v>1.040320736842887</v>
       </c>
       <c r="L12">
-        <v>1.033931171000827</v>
+        <v>1.033509418452651</v>
       </c>
       <c r="M12">
-        <v>1.042396106842363</v>
+        <v>1.041734956130045</v>
       </c>
       <c r="N12">
-        <v>1.014562350179214</v>
+        <v>1.016124598766287</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040306328746533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03966518636995</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023150272988477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002700495602985</v>
+        <v>1.002279938218902</v>
       </c>
       <c r="D13">
-        <v>1.026752318673474</v>
+        <v>1.025791945335286</v>
       </c>
       <c r="E13">
-        <v>1.019319471686403</v>
+        <v>1.018877040941732</v>
       </c>
       <c r="F13">
-        <v>1.027950894659204</v>
+        <v>1.027263765285559</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050949839274454</v>
+        <v>1.050483027148034</v>
       </c>
       <c r="J13">
-        <v>1.032298799000063</v>
+        <v>1.031895850103938</v>
       </c>
       <c r="K13">
-        <v>1.041341951758025</v>
+        <v>1.040398717171449</v>
       </c>
       <c r="L13">
-        <v>1.034042846593969</v>
+        <v>1.033608456723124</v>
       </c>
       <c r="M13">
-        <v>1.042519196342903</v>
+        <v>1.041844288105294</v>
       </c>
       <c r="N13">
-        <v>1.014595303340116</v>
+        <v>1.016124724842434</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.04036921575229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039717601715037</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023165988941683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003357369263251</v>
+        <v>1.002891818549758</v>
       </c>
       <c r="D14">
-        <v>1.027207515895846</v>
+        <v>1.026199459621403</v>
       </c>
       <c r="E14">
-        <v>1.019838898239805</v>
+        <v>1.019354818724357</v>
       </c>
       <c r="F14">
-        <v>1.02850705545294</v>
+        <v>1.027774596131325</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051143957661915</v>
+        <v>1.050647951923876</v>
       </c>
       <c r="J14">
-        <v>1.03262659715714</v>
+        <v>1.032180270260828</v>
       </c>
       <c r="K14">
-        <v>1.041650273745524</v>
+        <v>1.040659990768002</v>
       </c>
       <c r="L14">
-        <v>1.034412626718186</v>
+        <v>1.033937237407454</v>
       </c>
       <c r="M14">
-        <v>1.042926967406449</v>
+        <v>1.042207375505797</v>
       </c>
       <c r="N14">
-        <v>1.014705102857508</v>
+        <v>1.016129258534792</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040588621040823</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039903877853164</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023219314926339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003763440331408</v>
+        <v>1.003270660335911</v>
       </c>
       <c r="D15">
-        <v>1.027490559809661</v>
+        <v>1.026453497173241</v>
       </c>
       <c r="E15">
-        <v>1.020160666535561</v>
+        <v>1.019651356404422</v>
       </c>
       <c r="F15">
-        <v>1.028851749881848</v>
+        <v>1.028091778788034</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051264852975557</v>
+        <v>1.050751111217528</v>
       </c>
       <c r="J15">
-        <v>1.03283034284702</v>
+        <v>1.03235773670544</v>
       </c>
       <c r="K15">
-        <v>1.041842865376833</v>
+        <v>1.040823950606819</v>
       </c>
       <c r="L15">
-        <v>1.034642267062982</v>
+        <v>1.034142030524348</v>
       </c>
       <c r="M15">
-        <v>1.043180307468538</v>
+        <v>1.042433585157109</v>
       </c>
       <c r="N15">
-        <v>1.014773633782333</v>
+        <v>1.016134946589576</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040730616972265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040026199699645</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023253120035567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006094540044152</v>
+        <v>1.005455157380623</v>
       </c>
       <c r="D16">
-        <v>1.029107539852905</v>
+        <v>1.02791087413118</v>
       </c>
       <c r="E16">
-        <v>1.022007210958574</v>
+        <v>1.021361723913676</v>
       </c>
       <c r="F16">
-        <v>1.030828670262072</v>
+        <v>1.0299189588335</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051948978664232</v>
+        <v>1.051338300102312</v>
       </c>
       <c r="J16">
-        <v>1.033992404858757</v>
+        <v>1.033377900291881</v>
       </c>
       <c r="K16">
-        <v>1.042935216125918</v>
+        <v>1.041758581238352</v>
       </c>
       <c r="L16">
-        <v>1.035954625211024</v>
+        <v>1.035320130094545</v>
       </c>
       <c r="M16">
-        <v>1.044627641784695</v>
+        <v>1.043733086985173</v>
       </c>
       <c r="N16">
-        <v>1.015162754100127</v>
+        <v>1.01619947960455</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041506080456386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.040690448890027</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023443737539973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007542385400414</v>
+        <v>1.006821683316816</v>
       </c>
       <c r="D17">
-        <v>1.030113372030352</v>
+        <v>1.028824750138861</v>
       </c>
       <c r="E17">
-        <v>1.023156289914133</v>
+        <v>1.022434842862627</v>
       </c>
       <c r="F17">
-        <v>1.032058809452147</v>
+        <v>1.031064362643513</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052371226495257</v>
+        <v>1.051705346442035</v>
       </c>
       <c r="J17">
-        <v>1.034713774882715</v>
+        <v>1.034020214997837</v>
       </c>
       <c r="K17">
-        <v>1.043613231798955</v>
+        <v>1.042345572817651</v>
       </c>
       <c r="L17">
-        <v>1.036770132280346</v>
+        <v>1.036060619445923</v>
       </c>
       <c r="M17">
-        <v>1.045527148738454</v>
+        <v>1.044548795133535</v>
       </c>
       <c r="N17">
-        <v>1.01540433356571</v>
+        <v>1.016276161636226</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04198802294676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041108280908481</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023563547949513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008375308620646</v>
+        <v>1.007611674501464</v>
       </c>
       <c r="D18">
-        <v>1.030688453967226</v>
+        <v>1.029349658003075</v>
       </c>
       <c r="E18">
-        <v>1.023816815048876</v>
+        <v>1.023055076031314</v>
       </c>
       <c r="F18">
-        <v>1.032765409576652</v>
+        <v>1.031725442943003</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052610226139218</v>
+        <v>1.051914540339141</v>
       </c>
       <c r="J18">
-        <v>1.035125598611102</v>
+        <v>1.034390174310606</v>
       </c>
       <c r="K18">
-        <v>1.043997686560596</v>
+        <v>1.042680304990525</v>
       </c>
       <c r="L18">
-        <v>1.037236724197657</v>
+        <v>1.036487371561831</v>
       </c>
       <c r="M18">
-        <v>1.046041561484061</v>
+        <v>1.045018137571814</v>
       </c>
       <c r="N18">
-        <v>1.015541528748311</v>
+        <v>1.016333088501409</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042248293389205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041332257918561</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023631004762706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008663486957327</v>
+        <v>1.007885659358197</v>
       </c>
       <c r="D19">
-        <v>1.030890692988034</v>
+        <v>1.029535109709384</v>
       </c>
       <c r="E19">
-        <v>1.024046482640401</v>
+        <v>1.023271381789866</v>
       </c>
       <c r="F19">
-        <v>1.033011480040524</v>
+        <v>1.03195635340538</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052695045005714</v>
+        <v>1.051989418777164</v>
       </c>
       <c r="J19">
-        <v>1.03527040829541</v>
+        <v>1.034521124803333</v>
       </c>
       <c r="K19">
-        <v>1.044134894294759</v>
+        <v>1.04280086811777</v>
       </c>
       <c r="L19">
-        <v>1.037400272402436</v>
+        <v>1.036637700983375</v>
       </c>
       <c r="M19">
-        <v>1.046222100932394</v>
+        <v>1.04518365901527</v>
       </c>
       <c r="N19">
-        <v>1.015590343916827</v>
+        <v>1.016356655246152</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042351645289085</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041424464064715</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02365603109761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007387067908715</v>
+        <v>1.006674695981632</v>
       </c>
       <c r="D20">
-        <v>1.030005098456677</v>
+        <v>1.028726042897969</v>
       </c>
       <c r="E20">
-        <v>1.023032840877711</v>
+        <v>1.022319195314045</v>
       </c>
       <c r="F20">
-        <v>1.031926616376</v>
+        <v>1.03094092302714</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052325802100912</v>
+        <v>1.051665637783638</v>
       </c>
       <c r="J20">
-        <v>1.034636170666038</v>
+        <v>1.033950722070199</v>
       </c>
       <c r="K20">
-        <v>1.043540094398258</v>
+        <v>1.042281910547989</v>
       </c>
       <c r="L20">
-        <v>1.036682425647556</v>
+        <v>1.035980622367052</v>
       </c>
       <c r="M20">
-        <v>1.045430381751381</v>
+        <v>1.044460690266543</v>
       </c>
       <c r="N20">
-        <v>1.015378286748002</v>
+        <v>1.016266312019414</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041934987790414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041061815543518</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023550478520386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003171105876238</v>
+        <v>1.002734701180831</v>
       </c>
       <c r="D21">
-        <v>1.02708271672252</v>
+        <v>1.026100441931589</v>
       </c>
       <c r="E21">
-        <v>1.019692975864796</v>
+        <v>1.01923525990444</v>
       </c>
       <c r="F21">
-        <v>1.028351306732377</v>
+        <v>1.02764567760141</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051092023143789</v>
+        <v>1.050612966821144</v>
       </c>
       <c r="J21">
-        <v>1.032536840172632</v>
+        <v>1.032118528961349</v>
       </c>
       <c r="K21">
-        <v>1.041568544017073</v>
+        <v>1.040603649305889</v>
       </c>
       <c r="L21">
-        <v>1.034310622872163</v>
+        <v>1.033861153456508</v>
       </c>
       <c r="M21">
-        <v>1.042814751662747</v>
+        <v>1.042121563453826</v>
       </c>
       <c r="N21">
-        <v>1.014675836283582</v>
+        <v>1.016194959953888</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040544250762474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039878771586557</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023210145494672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000463588962871</v>
+        <v>1.000203295778504</v>
       </c>
       <c r="D22">
-        <v>1.0252057437767</v>
+        <v>1.024412996316835</v>
       </c>
       <c r="E22">
-        <v>1.017553733680376</v>
+        <v>1.017259447402966</v>
       </c>
       <c r="F22">
-        <v>1.026060391766481</v>
+        <v>1.025533676956168</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050287149337462</v>
+        <v>1.049923319647025</v>
       </c>
       <c r="J22">
-        <v>1.031183447978868</v>
+        <v>1.030934568441494</v>
       </c>
       <c r="K22">
-        <v>1.040293878658645</v>
+        <v>1.039515859656033</v>
       </c>
       <c r="L22">
-        <v>1.032785287977821</v>
+        <v>1.032496573747411</v>
       </c>
       <c r="M22">
-        <v>1.041132681381441</v>
+        <v>1.040615727849038</v>
       </c>
       <c r="N22">
-        <v>1.014222065350457</v>
+        <v>1.016136425355255</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039629616876167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039094964832688</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022986126577788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001895265772362</v>
+        <v>1.001531235490466</v>
       </c>
       <c r="D23">
-        <v>1.026192603449529</v>
+        <v>1.025291644158897</v>
       </c>
       <c r="E23">
-        <v>1.018682524804761</v>
+        <v>1.018292387411006</v>
       </c>
       <c r="F23">
-        <v>1.027268656584166</v>
+        <v>1.026638255323647</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050709897898214</v>
+        <v>1.050279549229748</v>
       </c>
       <c r="J23">
-        <v>1.031895386127551</v>
+        <v>1.031546854934144</v>
       </c>
       <c r="K23">
-        <v>1.040961219946551</v>
+        <v>1.040076575613938</v>
       </c>
       <c r="L23">
-        <v>1.033588286899628</v>
+        <v>1.033205346057304</v>
       </c>
       <c r="M23">
-        <v>1.042017836197094</v>
+        <v>1.041398815527677</v>
       </c>
       <c r="N23">
-        <v>1.014459800142448</v>
+        <v>1.016123322181276</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040091885782246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039480902205245</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023099781114697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007443582516778</v>
+        <v>1.006728196540727</v>
       </c>
       <c r="D24">
-        <v>1.030035936889014</v>
+        <v>1.028753182466188</v>
       </c>
       <c r="E24">
-        <v>1.023075041387248</v>
+        <v>1.022358586113968</v>
       </c>
       <c r="F24">
-        <v>1.031970776301684</v>
+        <v>1.030981834195746</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052336165476858</v>
+        <v>1.051673849512184</v>
       </c>
       <c r="J24">
-        <v>1.034658078345281</v>
+        <v>1.033969687557815</v>
       </c>
       <c r="K24">
-        <v>1.043555349322597</v>
+        <v>1.042293498692993</v>
       </c>
       <c r="L24">
-        <v>1.036708699074697</v>
+        <v>1.03600411626091</v>
       </c>
       <c r="M24">
-        <v>1.045458784772647</v>
+        <v>1.044485875060438</v>
       </c>
       <c r="N24">
-        <v>1.015384109593406</v>
+        <v>1.016266263136591</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041918589580004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04104014930174</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023550961173316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013682927017849</v>
+        <v>1.012717235585725</v>
       </c>
       <c r="D25">
-        <v>1.034377596590149</v>
+        <v>1.032772215037045</v>
       </c>
       <c r="E25">
-        <v>1.028044311131416</v>
+        <v>1.027088882564972</v>
       </c>
       <c r="F25">
-        <v>1.037289174474649</v>
+        <v>1.036019869707158</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054126664930767</v>
+        <v>1.053278359760729</v>
       </c>
       <c r="J25">
-        <v>1.037758420371021</v>
+        <v>1.036824064889281</v>
       </c>
       <c r="K25">
-        <v>1.046464695068742</v>
+        <v>1.044882227519923</v>
       </c>
       <c r="L25">
-        <v>1.040222333004035</v>
+        <v>1.039280744380469</v>
       </c>
       <c r="M25">
-        <v>1.049334944068682</v>
+        <v>1.048083620544763</v>
       </c>
       <c r="N25">
-        <v>1.016421650842301</v>
+        <v>1.016977108851277</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04397277478914</v>
+        <v>1.042867338369583</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024079193793691</v>
       </c>
     </row>
   </sheetData>
